--- a/apps/data/df_markdown.xlsx
+++ b/apps/data/df_markdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48ae5677abd90bad/work/hoare_lea/github/streamlit-dasboard/apps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{4A3C7082-DAF9-4359-9569-3C1BBB1D771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0FA707B-38B8-4123-AE09-50E2FCE63653}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{4A3C7082-DAF9-4359-9569-3C1BBB1D771D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C55C71F-67AF-45BB-A18F-FCA11219F904}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="94">
   <si>
     <t>speckleName</t>
   </si>
@@ -132,9 +132,6 @@
     <t>% View</t>
   </si>
   <si>
-    <t>solrad</t>
-  </si>
-  <si>
     <t>Solar Irradiation</t>
   </si>
   <si>
@@ -240,10 +237,6 @@
     <t>Air Quality</t>
   </si>
   <si>
-    <t xml:space="preserve">Air Quality
-Here goes the description on the importance of the Air quality in buildings </t>
-  </si>
-  <si>
     <t>A&amp;Q</t>
   </si>
   <si>
@@ -325,6 +318,18 @@
   </si>
   <si>
     <t>branchPath</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>mrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here goes the description on the importance of the Air quality in buildings </t>
+  </si>
+  <si>
+    <t>rad</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -1256,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -1290,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
@@ -1308,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
@@ -1319,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -1337,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="165.75" x14ac:dyDescent="0.25">
@@ -1348,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -1369,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="280.5" x14ac:dyDescent="0.25">
@@ -1377,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -1398,25 +1403,25 @@
         <v>28</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>10</v>
@@ -1426,128 +1431,128 @@
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>10</v>
@@ -1557,74 +1562,74 @@
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="I13" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="I14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>10</v>
@@ -1634,107 +1639,134 @@
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="E19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="6"/>
+      <c r="I20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
